--- a/치킨이벤트명단.xlsx
+++ b/치킨이벤트명단.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$A$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$6:$A$19</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>010-7444-2846</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">010-9774-7730     </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">010-4364-3890 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,9 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[프라이빗노트] {{고객이름}}님, 축하합니다. 코칭앱 주간 랭킹 TOP10에 선정되셨습니다!</t>
-  </si>
-  <si>
     <t>총인원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,13 +113,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>열심히 공부하고 있는 학생들을 응원하는 마음에서, 프라이빗노트 선생님들이 작은 선물을 준비했습니다.</t>
-  </si>
-  <si>
-    <t>앞으로 더 기대하겠습니다^^</t>
-  </si>
-  <si>
     <t>교촌 허니콤보웨지감자세트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조유현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정유진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김한이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이경록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박지훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조은호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나예성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>류아름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강다윤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이요엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김은성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이하엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분홍색 표시는 중복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기프티콘 발송일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른메뉴추천받습니다~~~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금주 이벤트발송일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발송일 여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,10 +225,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0"/>
+    <numFmt numFmtId="180" formatCode="000\-0000\-0000"/>
+    <numFmt numFmtId="181" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="182" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,16 +247,82 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -170,21 +330,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="나쁨" xfId="1" builtinId="27"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -474,140 +701,365 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:F21"/>
+  <dimension ref="A2:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="4"/>
+    <col min="4" max="4" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="8">
+        <v>23000</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="9">
+        <f ca="1">TODAY()</f>
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="M3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="9">
+        <f ca="1">TODAY()-WEEKDAY(TODAY(),3)+6</f>
+        <v>44199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="14">
+        <f>H4*J2</f>
+        <v>230000</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="11" t="str">
+        <f ca="1">IF(N2=N3, "오늘은 이벤트 발송일입니다", "오늘은 이벤트 발송일이 아닙니다")</f>
+        <v>오늘은 이벤트 발송일이 아닙니다</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1097747730</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>44185</v>
+      </c>
+      <c r="B15" s="4">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1086259732</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1067040706</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1077991207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1039192000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="4">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1095305190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1072338107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="4">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1089102492</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="4">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1043962514</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="4">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1090991567</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>43833</v>
+      </c>
+      <c r="B31" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="1">
-        <v>23000</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="1">
-        <f>D20*F18</f>
-        <v>230000</v>
-      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1036818146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C11 F7:F11 I2:I3">
+  <conditionalFormatting sqref="C6:C15 F7:F11 C17:C31">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/치킨이벤트명단.xlsx
+++ b/치킨이벤트명단.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>010-7444-2846</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">010-4364-3890 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>조유현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,10 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">010-4282-8328 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>총인원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,10 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>교촌 허니콤보웨지감자세트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>조유현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,10 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>류아름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>강다윤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,14 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김은성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이하엘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>분홍색 표시는 중복</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,6 +194,26 @@
   </si>
   <si>
     <t>발송일 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신민서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한예원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이장경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">번호복사 시 '0' 누락인지 확인 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BHC 뿌링클+콜라1.25L</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -227,11 +223,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0"/>
-    <numFmt numFmtId="180" formatCode="000\-0000\-0000"/>
-    <numFmt numFmtId="181" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-    <numFmt numFmtId="182" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="177" formatCode="000\-0000\-0000"/>
+    <numFmt numFmtId="178" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,8 +286,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,8 +325,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -345,27 +360,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -382,7 +412,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -394,7 +424,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -406,12 +436,28 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
+    <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -705,13 +751,13 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="4"/>
+    <col min="2" max="2" width="9" style="2"/>
     <col min="4" max="4" width="16.125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.125" bestFit="1" customWidth="1"/>
@@ -719,116 +765,127 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="8">
-        <v>23000</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="C2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="G2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="9">
+      <c r="I2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="6">
+        <v>17860</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="7">
         <f ca="1">TODAY()</f>
-        <v>44196</v>
+        <v>44199</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="M3" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="9">
+      <c r="C3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="M3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="7">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),3)+6</f>
         <v>44199</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="7">
+      <c r="C4" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="12">
+        <f>H4*J2</f>
+        <v>178600</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="14">
-        <f>H4*J2</f>
-        <v>230000</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="11" t="str">
+      <c r="N5" s="9" t="str">
         <f ca="1">IF(N2=N3, "오늘은 이벤트 발송일입니다", "오늘은 이벤트 발송일이 아닙니다")</f>
-        <v>오늘은 이벤트 발송일이 아닙니다</v>
+        <v>오늘은 이벤트 발송일입니다</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="4">
+      <c r="A6" s="19">
+        <v>44185</v>
+      </c>
+      <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="4">
+      <c r="A7" s="20"/>
+      <c r="B7" s="2">
         <v>2</v>
       </c>
       <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1043643890</v>
+      </c>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="4">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="4">
+      <c r="A9" s="20"/>
+      <c r="B9" s="2">
         <v>4</v>
       </c>
       <c r="C9" t="s">
@@ -839,7 +896,8 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="4">
+      <c r="A10" s="20"/>
+      <c r="B10" s="2">
         <v>5</v>
       </c>
       <c r="C10" t="s">
@@ -850,217 +908,242 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="4">
+      <c r="A11" s="20"/>
+      <c r="B11" s="2">
         <v>6</v>
       </c>
       <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="4">
+      <c r="A12" s="20"/>
+      <c r="B12" s="2">
         <v>7</v>
       </c>
       <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="4">
+      <c r="A13" s="20"/>
+      <c r="B13" s="2">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="4">
+      <c r="A14" s="20"/>
+      <c r="B14" s="2">
         <v>9</v>
       </c>
       <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+      <c r="B15" s="2">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>44185</v>
-      </c>
-      <c r="B15" s="4">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>18</v>
+      <c r="D15" s="1">
+        <v>1042828328</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="17"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="20">
+        <v>43833</v>
+      </c>
       <c r="C17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
       <c r="C18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1086259732</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="4">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1086259732</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="4">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1067040706</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="4">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
       </c>
       <c r="D21" s="1">
         <v>1077991207</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
       <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1089102492</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1067040706</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="2">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="4">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="D26" s="1">
+        <v>1095305190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+      <c r="B27" s="2">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1092810168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="2">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="1">
         <v>1039192000</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="4">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="20"/>
+      <c r="B29" s="2">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1071350776</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
+      <c r="B30" s="2">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="1">
-        <v>1095305190</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="4">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1072338107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="4">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1089102492</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="4">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="D30" s="1">
         <v>1043962514</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="4">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1090991567</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
-        <v>43833</v>
-      </c>
-      <c r="B31" s="4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="2">
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D31" s="1">
-        <v>1036818146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="17"/>
+        <v>1033180970</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="A17:A31"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C6:C15 F7:F11 C17:C31">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  <conditionalFormatting sqref="C6:C15 F7:F11 F28:F29 C17:C31">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/치킨이벤트명단.xlsx
+++ b/치킨이벤트명단.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>010-7444-2846</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,7 +213,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BHC 뿌링클+콜라1.25L</t>
+    <t>류아름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정유진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조유현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이하엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조은호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김한이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김새봄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김윤후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최민준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이연우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박태준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이장경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신민서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강리원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이도윤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이경록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한예원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이우혁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01월10일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>굽네 갈비천왕 + 콜라1.25L</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -390,7 +478,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -452,6 +540,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -747,11 +838,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O32"/>
+  <dimension ref="A2:O54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -773,7 +864,7 @@
         <v>36</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>37</v>
@@ -786,7 +877,7 @@
       </c>
       <c r="N2" s="7">
         <f ca="1">TODAY()</f>
-        <v>44199</v>
+        <v>44206</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -801,7 +892,7 @@
       </c>
       <c r="N3" s="7">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),3)+6</f>
-        <v>44199</v>
+        <v>44206</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -1133,8 +1224,203 @@
       <c r="C32" s="13"/>
       <c r="D32" s="15"/>
     </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1072338107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="21"/>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="21"/>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="21"/>
+      <c r="B36" s="2">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1036818146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="21"/>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="21"/>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="21"/>
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="21"/>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="21"/>
+      <c r="B41" s="2">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1053790853</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="21"/>
+      <c r="B42" s="2">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1033405260</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="21"/>
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="21"/>
+      <c r="B44" s="2">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1074240173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="21"/>
+      <c r="B45" s="2">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1081562233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="21"/>
+      <c r="B46" s="2">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1030395569</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="21"/>
+      <c r="C47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="21"/>
+      <c r="C48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="21"/>
+      <c r="B49" s="2">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1089342612</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="21"/>
+      <c r="B50" s="2">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1081562233</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="21"/>
+      <c r="C51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="21"/>
+      <c r="C52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="21"/>
+      <c r="B53" s="2">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1042226888</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="13"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A33:A53"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C2:D2"/>
@@ -1142,7 +1428,7 @@
     <mergeCell ref="A17:A31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C6:C15 F7:F11 F28:F29 C17:C31">
+  <conditionalFormatting sqref="C6:C15 F7:F11 F28:F29 C17:C31 C33:C53">
     <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
